--- a/biology/Botanique/Afzelia/Afzelia.xlsx
+++ b/biology/Botanique/Afzelia/Afzelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Afzelia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire des régions tropicales d'Afrique et d'Asie, qui comprend 12 espèces acceptées. 
@@ -514,12 +526,14 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition du genre Afzelia s'étend dans les régions tropicales d'Afrique et d'Asie du Sud-Est :  
 Sept espèces sont originaires d'Afrique, principalement d'Afrique centrale-occidentale dans la zone guinéo-congolaise et secondairement d'Afrique orientale avec une espèce dans la région soudanienne et une dans la région allant du Zambèze à la Somalie.
-Quatre espèces sont originaires de l'Asie du Sud-Est (deux de l'Indochine au sud de la Chine et deux en Malaisie)[3].
-Ces arbres se rencontrent dans les forêts pluviales et les  forêts saisonnièrement sèches des basses terres tropicales, ainsi que dans les broussailles et fourrés[3].
+Quatre espèces sont originaires de l'Asie du Sud-Est (deux de l'Indochine au sud de la Chine et deux en Malaisie).
+Ces arbres se rencontrent dans les forêts pluviales et les  forêts saisonnièrement sèches des basses terres tropicales, ainsi que dans les broussailles et fourrés.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (1 septembre 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 septembre 2018) :
 Afzelia africana Pers.
 Afzelia bella Harms
 Afzelia bipindensis Harms
@@ -591,9 +607,11 @@
           <t>Espèces menacées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 espèces du genre Afzelia sont inscrites dans la liste rouge de l'UICN (Union internationale pour la conservation de la nature). 4 espèces (Afzelia africana, Afzelia bipindensis, Afzelia pachyloba, Afzelia rhomboidea, ) sont considérées comme « vulnérables » (VU) et 1 (Afzelia xylocarpa) comme « en danger d'extinction » (EN)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 espèces du genre Afzelia sont inscrites dans la liste rouge de l'UICN (Union internationale pour la conservation de la nature). 4 espèces (Afzelia africana, Afzelia bipindensis, Afzelia pachyloba, Afzelia rhomboidea, ) sont considérées comme « vulnérables » (VU) et 1 (Afzelia xylocarpa) comme « en danger d'extinction » (EN).
 </t>
         </is>
       </c>
